--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Crlf2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H2">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I2">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J2">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.67710943677023</v>
+        <v>3.747391333333333</v>
       </c>
       <c r="N2">
-        <v>3.67710943677023</v>
+        <v>11.242174</v>
       </c>
       <c r="O2">
-        <v>0.1151323951434799</v>
+        <v>0.1082098673156476</v>
       </c>
       <c r="P2">
-        <v>0.1151323951434799</v>
+        <v>0.1100251243307724</v>
       </c>
       <c r="Q2">
-        <v>2.056953859898433</v>
+        <v>3.466712971597111</v>
       </c>
       <c r="R2">
-        <v>2.056953859898433</v>
+        <v>31.200416744374</v>
       </c>
       <c r="S2">
-        <v>0.07017494439581051</v>
+        <v>0.0284432983160364</v>
       </c>
       <c r="T2">
-        <v>0.07017494439581051</v>
+        <v>0.03087736481965926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H3">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I3">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J3">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51265787130268</v>
+        <v>3.915246999999999</v>
       </c>
       <c r="N3">
-        <v>3.51265787130268</v>
+        <v>11.745741</v>
       </c>
       <c r="O3">
-        <v>0.1099833227693914</v>
+        <v>0.1130568762886931</v>
       </c>
       <c r="P3">
-        <v>0.1099833227693914</v>
+        <v>0.1149534435138658</v>
       </c>
       <c r="Q3">
-        <v>1.964960600472373</v>
+        <v>3.621996304782333</v>
       </c>
       <c r="R3">
-        <v>1.964960600472373</v>
+        <v>32.59796674304099</v>
       </c>
       <c r="S3">
-        <v>0.06703650653832163</v>
+        <v>0.02971734961635531</v>
       </c>
       <c r="T3">
-        <v>0.06703650653832163</v>
+        <v>0.03226044445978414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H4">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I4">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J4">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.660895868243</v>
+        <v>13.58764366666667</v>
       </c>
       <c r="N4">
-        <v>11.660895868243</v>
+        <v>40.762931</v>
       </c>
       <c r="O4">
-        <v>0.3651093049895039</v>
+        <v>0.3923575062000373</v>
       </c>
       <c r="P4">
-        <v>0.3651093049895039</v>
+        <v>0.3989394356786949</v>
       </c>
       <c r="Q4">
-        <v>6.523038048909428</v>
+        <v>12.56993368524789</v>
       </c>
       <c r="R4">
-        <v>6.523038048909428</v>
+        <v>113.129403167231</v>
       </c>
       <c r="S4">
-        <v>0.222539669604732</v>
+        <v>0.1031323840628163</v>
       </c>
       <c r="T4">
-        <v>0.222539669604732</v>
+        <v>0.1119580511390055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H5">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I5">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J5">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.5264925307159</v>
+        <v>11.66641633333333</v>
       </c>
       <c r="N5">
-        <v>11.5264925307159</v>
+        <v>34.999249</v>
       </c>
       <c r="O5">
-        <v>0.3609010597819955</v>
+        <v>0.3368800456599686</v>
       </c>
       <c r="P5">
-        <v>0.3609010597819955</v>
+        <v>0.3425313220297659</v>
       </c>
       <c r="Q5">
-        <v>6.447853595288047</v>
+        <v>10.79260563877211</v>
       </c>
       <c r="R5">
-        <v>6.447853595288047</v>
+        <v>97.13345074894899</v>
       </c>
       <c r="S5">
-        <v>0.2199746802021158</v>
+        <v>0.08854996196858708</v>
       </c>
       <c r="T5">
-        <v>0.2199746802021158</v>
+        <v>0.09612772225257273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H6">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I6">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J6">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.56093984103488</v>
+        <v>1.7140745</v>
       </c>
       <c r="N6">
-        <v>1.56093984103488</v>
+        <v>3.428149</v>
       </c>
       <c r="O6">
-        <v>0.04887391731562931</v>
+        <v>0.04949570453565343</v>
       </c>
       <c r="P6">
-        <v>0.04887391731562931</v>
+        <v>0.03355067444690085</v>
       </c>
       <c r="Q6">
-        <v>0.8731807650267043</v>
+        <v>1.585690891308167</v>
       </c>
       <c r="R6">
-        <v>0.8731807650267043</v>
+        <v>9.514145347849</v>
       </c>
       <c r="S6">
-        <v>0.02978939529361435</v>
+        <v>0.01301009902695269</v>
       </c>
       <c r="T6">
-        <v>0.02978939529361435</v>
+        <v>0.009415635030124074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.358374908139507</v>
+        <v>0.7509579999999999</v>
       </c>
       <c r="H7">
-        <v>0.358374908139507</v>
+        <v>2.252874</v>
       </c>
       <c r="I7">
-        <v>0.3904848039654057</v>
+        <v>0.2133732157407207</v>
       </c>
       <c r="J7">
-        <v>0.3904848039654057</v>
+        <v>0.2278112525233302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.67710943677023</v>
+        <v>3.747391333333333</v>
       </c>
       <c r="N7">
-        <v>3.67710943677023</v>
+        <v>11.242174</v>
       </c>
       <c r="O7">
-        <v>0.1151323951434799</v>
+        <v>0.1082098673156476</v>
       </c>
       <c r="P7">
-        <v>0.1151323951434799</v>
+        <v>0.1100251243307724</v>
       </c>
       <c r="Q7">
-        <v>1.317783756621445</v>
+        <v>2.814133500897333</v>
       </c>
       <c r="R7">
-        <v>1.317783756621445</v>
+        <v>25.327201508076</v>
       </c>
       <c r="S7">
-        <v>0.04495745074766937</v>
+        <v>0.02308908736401644</v>
       </c>
       <c r="T7">
-        <v>0.04495745074766937</v>
+        <v>0.0250649613828284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.358374908139507</v>
+        <v>0.7509579999999999</v>
       </c>
       <c r="H8">
-        <v>0.358374908139507</v>
+        <v>2.252874</v>
       </c>
       <c r="I8">
-        <v>0.3904848039654057</v>
+        <v>0.2133732157407207</v>
       </c>
       <c r="J8">
-        <v>0.3904848039654057</v>
+        <v>0.2278112525233302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.51265787130268</v>
+        <v>3.915246999999999</v>
       </c>
       <c r="N8">
-        <v>3.51265787130268</v>
+        <v>11.745741</v>
       </c>
       <c r="O8">
-        <v>0.1099833227693914</v>
+        <v>0.1130568762886931</v>
       </c>
       <c r="P8">
-        <v>0.1099833227693914</v>
+        <v>0.1149534435138658</v>
       </c>
       <c r="Q8">
-        <v>1.258848441953614</v>
+        <v>2.940186056625999</v>
       </c>
       <c r="R8">
-        <v>1.258848441953614</v>
+        <v>26.46167450963399</v>
       </c>
       <c r="S8">
-        <v>0.04294681623106973</v>
+        <v>0.02412330925531928</v>
       </c>
       <c r="T8">
-        <v>0.04294681623106973</v>
+        <v>0.02618768794876366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.358374908139507</v>
+        <v>0.7509579999999999</v>
       </c>
       <c r="H9">
-        <v>0.358374908139507</v>
+        <v>2.252874</v>
       </c>
       <c r="I9">
-        <v>0.3904848039654057</v>
+        <v>0.2133732157407207</v>
       </c>
       <c r="J9">
-        <v>0.3904848039654057</v>
+        <v>0.2278112525233302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.660895868243</v>
+        <v>13.58764366666667</v>
       </c>
       <c r="N9">
-        <v>11.660895868243</v>
+        <v>40.762931</v>
       </c>
       <c r="O9">
-        <v>0.3651093049895039</v>
+        <v>0.3923575062000373</v>
       </c>
       <c r="P9">
-        <v>0.3651093049895039</v>
+        <v>0.3989394356786949</v>
       </c>
       <c r="Q9">
-        <v>4.178972485605942</v>
+        <v>10.20374971263267</v>
       </c>
       <c r="R9">
-        <v>4.178972485605942</v>
+        <v>91.833747413694</v>
       </c>
       <c r="S9">
-        <v>0.142569635384772</v>
+        <v>0.08371858281791172</v>
       </c>
       <c r="T9">
-        <v>0.142569635384772</v>
+        <v>0.09088289252291404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.358374908139507</v>
+        <v>0.7509579999999999</v>
       </c>
       <c r="H10">
-        <v>0.358374908139507</v>
+        <v>2.252874</v>
       </c>
       <c r="I10">
-        <v>0.3904848039654057</v>
+        <v>0.2133732157407207</v>
       </c>
       <c r="J10">
-        <v>0.3904848039654057</v>
+        <v>0.2278112525233302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.5264925307159</v>
+        <v>11.66641633333333</v>
       </c>
       <c r="N10">
-        <v>11.5264925307159</v>
+        <v>34.999249</v>
       </c>
       <c r="O10">
-        <v>0.3609010597819955</v>
+        <v>0.3368800456599686</v>
       </c>
       <c r="P10">
-        <v>0.3609010597819955</v>
+        <v>0.3425313220297659</v>
       </c>
       <c r="Q10">
-        <v>4.130805701866024</v>
+        <v>8.760988676847331</v>
       </c>
       <c r="R10">
-        <v>4.130805701866024</v>
+        <v>78.848898091626</v>
       </c>
       <c r="S10">
-        <v>0.1409263795798797</v>
+        <v>0.07188117866134831</v>
       </c>
       <c r="T10">
-        <v>0.1409263795798797</v>
+        <v>0.07803248950007316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7509579999999999</v>
+      </c>
+      <c r="H11">
+        <v>2.252874</v>
+      </c>
+      <c r="I11">
+        <v>0.2133732157407207</v>
+      </c>
+      <c r="J11">
+        <v>0.2278112525233302</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.7140745</v>
+      </c>
+      <c r="N11">
+        <v>3.428149</v>
+      </c>
+      <c r="O11">
+        <v>0.04949570453565343</v>
+      </c>
+      <c r="P11">
+        <v>0.03355067444690085</v>
+      </c>
+      <c r="Q11">
+        <v>1.287197958371</v>
+      </c>
+      <c r="R11">
+        <v>7.723187750226</v>
+      </c>
+      <c r="S11">
+        <v>0.01056105764212495</v>
+      </c>
+      <c r="T11">
+        <v>0.007643221168750973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.28979</v>
+      </c>
+      <c r="I12">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J12">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.747391333333333</v>
+      </c>
+      <c r="N12">
+        <v>11.242174</v>
+      </c>
+      <c r="O12">
+        <v>0.1082098673156476</v>
+      </c>
+      <c r="P12">
+        <v>0.1100251243307724</v>
+      </c>
+      <c r="Q12">
+        <v>2.860246400384444</v>
+      </c>
+      <c r="R12">
+        <v>25.74221760346</v>
+      </c>
+      <c r="S12">
+        <v>0.02346742931706398</v>
+      </c>
+      <c r="T12">
+        <v>0.02547568036418665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.28979</v>
+      </c>
+      <c r="I13">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J13">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.915246999999999</v>
+      </c>
+      <c r="N13">
+        <v>11.745741</v>
+      </c>
+      <c r="O13">
+        <v>0.1130568762886931</v>
+      </c>
+      <c r="P13">
+        <v>0.1149534435138658</v>
+      </c>
+      <c r="Q13">
+        <v>2.988364476043333</v>
+      </c>
+      <c r="R13">
+        <v>26.89528028439</v>
+      </c>
+      <c r="S13">
+        <v>0.0245185981549512</v>
+      </c>
+      <c r="T13">
+        <v>0.02661680413027961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.28979</v>
+      </c>
+      <c r="I14">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J14">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.58764366666667</v>
+      </c>
+      <c r="N14">
+        <v>40.762931</v>
+      </c>
+      <c r="O14">
+        <v>0.3923575062000373</v>
+      </c>
+      <c r="P14">
+        <v>0.3989394356786949</v>
+      </c>
+      <c r="Q14">
+        <v>10.37095019716556</v>
+      </c>
+      <c r="R14">
+        <v>93.33855177449</v>
+      </c>
+      <c r="S14">
+        <v>0.08509041062688197</v>
+      </c>
+      <c r="T14">
+        <v>0.09237211600384368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.28979</v>
+      </c>
+      <c r="I15">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J15">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.66641633333333</v>
+      </c>
+      <c r="N15">
+        <v>34.999249</v>
+      </c>
+      <c r="O15">
+        <v>0.3368800456599686</v>
+      </c>
+      <c r="P15">
+        <v>0.3425313220297659</v>
+      </c>
+      <c r="Q15">
+        <v>8.904547818634443</v>
+      </c>
+      <c r="R15">
+        <v>80.14093036771</v>
+      </c>
+      <c r="S15">
+        <v>0.07305903662919842</v>
+      </c>
+      <c r="T15">
+        <v>0.07931114395761704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.28979</v>
+      </c>
+      <c r="I16">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J16">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7140745</v>
+      </c>
+      <c r="N16">
+        <v>3.428149</v>
+      </c>
+      <c r="O16">
+        <v>0.04949570453565343</v>
+      </c>
+      <c r="P16">
+        <v>0.03355067444690085</v>
+      </c>
+      <c r="Q16">
+        <v>1.308290216451667</v>
+      </c>
+      <c r="R16">
+        <v>7.849741298710001</v>
+      </c>
+      <c r="S16">
+        <v>0.01073411303888335</v>
+      </c>
+      <c r="T16">
+        <v>0.007768464370397231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.410976</v>
+      </c>
+      <c r="H17">
+        <v>1.232928</v>
+      </c>
+      <c r="I17">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J17">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.747391333333333</v>
+      </c>
+      <c r="N17">
+        <v>11.242174</v>
+      </c>
+      <c r="O17">
+        <v>0.1082098673156476</v>
+      </c>
+      <c r="P17">
+        <v>0.1100251243307724</v>
+      </c>
+      <c r="Q17">
+        <v>1.540087900608</v>
+      </c>
+      <c r="R17">
+        <v>13.860791105472</v>
+      </c>
+      <c r="S17">
+        <v>0.01263594071641027</v>
+      </c>
+      <c r="T17">
+        <v>0.01371727522613686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.358374908139507</v>
-      </c>
-      <c r="H11">
-        <v>0.358374908139507</v>
-      </c>
-      <c r="I11">
-        <v>0.3904848039654057</v>
-      </c>
-      <c r="J11">
-        <v>0.3904848039654057</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.56093984103488</v>
-      </c>
-      <c r="N11">
-        <v>1.56093984103488</v>
-      </c>
-      <c r="O11">
-        <v>0.04887391731562931</v>
-      </c>
-      <c r="P11">
-        <v>0.04887391731562931</v>
-      </c>
-      <c r="Q11">
-        <v>0.5594016721421718</v>
-      </c>
-      <c r="R11">
-        <v>0.5594016721421718</v>
-      </c>
-      <c r="S11">
-        <v>0.01908452202201496</v>
-      </c>
-      <c r="T11">
-        <v>0.01908452202201496</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.410976</v>
+      </c>
+      <c r="H18">
+        <v>1.232928</v>
+      </c>
+      <c r="I18">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J18">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.915246999999999</v>
+      </c>
+      <c r="N18">
+        <v>11.745741</v>
+      </c>
+      <c r="O18">
+        <v>0.1130568762886931</v>
+      </c>
+      <c r="P18">
+        <v>0.1149534435138658</v>
+      </c>
+      <c r="Q18">
+        <v>1.609072551072</v>
+      </c>
+      <c r="R18">
+        <v>14.481652959648</v>
+      </c>
+      <c r="S18">
+        <v>0.01320193825022717</v>
+      </c>
+      <c r="T18">
+        <v>0.01433170862076321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.410976</v>
+      </c>
+      <c r="H19">
+        <v>1.232928</v>
+      </c>
+      <c r="I19">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J19">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.58764366666667</v>
+      </c>
+      <c r="N19">
+        <v>40.762931</v>
+      </c>
+      <c r="O19">
+        <v>0.3923575062000373</v>
+      </c>
+      <c r="P19">
+        <v>0.3989394356786949</v>
+      </c>
+      <c r="Q19">
+        <v>5.584195443552</v>
+      </c>
+      <c r="R19">
+        <v>50.257758991968</v>
+      </c>
+      <c r="S19">
+        <v>0.04581658134299667</v>
+      </c>
+      <c r="T19">
+        <v>0.04973738562941885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.410976</v>
+      </c>
+      <c r="H20">
+        <v>1.232928</v>
+      </c>
+      <c r="I20">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J20">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.66641633333333</v>
+      </c>
+      <c r="N20">
+        <v>34.999249</v>
+      </c>
+      <c r="O20">
+        <v>0.3368800456599686</v>
+      </c>
+      <c r="P20">
+        <v>0.3425313220297659</v>
+      </c>
+      <c r="Q20">
+        <v>4.794617119008</v>
+      </c>
+      <c r="R20">
+        <v>43.151554071072</v>
+      </c>
+      <c r="S20">
+        <v>0.03933833753888538</v>
+      </c>
+      <c r="T20">
+        <v>0.04270475899422081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.410976</v>
+      </c>
+      <c r="H21">
+        <v>1.232928</v>
+      </c>
+      <c r="I21">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J21">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.7140745</v>
+      </c>
+      <c r="N21">
+        <v>3.428149</v>
+      </c>
+      <c r="O21">
+        <v>0.04949570453565343</v>
+      </c>
+      <c r="P21">
+        <v>0.03355067444690085</v>
+      </c>
+      <c r="Q21">
+        <v>0.7044434817120001</v>
+      </c>
+      <c r="R21">
+        <v>4.226660890272001</v>
+      </c>
+      <c r="S21">
+        <v>0.005779738980781805</v>
+      </c>
+      <c r="T21">
+        <v>0.004182897662783539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.66916</v>
+      </c>
+      <c r="H22">
+        <v>1.33832</v>
+      </c>
+      <c r="I22">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J22">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.747391333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.242174</v>
+      </c>
+      <c r="O22">
+        <v>0.1082098673156476</v>
+      </c>
+      <c r="P22">
+        <v>0.1100251243307724</v>
+      </c>
+      <c r="Q22">
+        <v>2.507604384613333</v>
+      </c>
+      <c r="R22">
+        <v>15.04562630768</v>
+      </c>
+      <c r="S22">
+        <v>0.02057411160212054</v>
+      </c>
+      <c r="T22">
+        <v>0.01488984253796125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.66916</v>
+      </c>
+      <c r="H23">
+        <v>1.33832</v>
+      </c>
+      <c r="I23">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J23">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.915246999999999</v>
+      </c>
+      <c r="N23">
+        <v>11.745741</v>
+      </c>
+      <c r="O23">
+        <v>0.1130568762886931</v>
+      </c>
+      <c r="P23">
+        <v>0.1149534435138658</v>
+      </c>
+      <c r="Q23">
+        <v>2.61992668252</v>
+      </c>
+      <c r="R23">
+        <v>15.71956009512</v>
+      </c>
+      <c r="S23">
+        <v>0.02149568101184014</v>
+      </c>
+      <c r="T23">
+        <v>0.0155567983542752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.66916</v>
+      </c>
+      <c r="H24">
+        <v>1.33832</v>
+      </c>
+      <c r="I24">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J24">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13.58764366666667</v>
+      </c>
+      <c r="N24">
+        <v>40.762931</v>
+      </c>
+      <c r="O24">
+        <v>0.3923575062000373</v>
+      </c>
+      <c r="P24">
+        <v>0.3989394356786949</v>
+      </c>
+      <c r="Q24">
+        <v>9.092307635986666</v>
+      </c>
+      <c r="R24">
+        <v>54.55384581592</v>
+      </c>
+      <c r="S24">
+        <v>0.07459954734943075</v>
+      </c>
+      <c r="T24">
+        <v>0.05398899038351293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.66916</v>
+      </c>
+      <c r="H25">
+        <v>1.33832</v>
+      </c>
+      <c r="I25">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J25">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.66641633333333</v>
+      </c>
+      <c r="N25">
+        <v>34.999249</v>
+      </c>
+      <c r="O25">
+        <v>0.3368800456599686</v>
+      </c>
+      <c r="P25">
+        <v>0.3425313220297659</v>
+      </c>
+      <c r="Q25">
+        <v>7.806699153613333</v>
+      </c>
+      <c r="R25">
+        <v>46.84019492167999</v>
+      </c>
+      <c r="S25">
+        <v>0.06405153086194947</v>
+      </c>
+      <c r="T25">
+        <v>0.04635520732528224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.66916</v>
+      </c>
+      <c r="H26">
+        <v>1.33832</v>
+      </c>
+      <c r="I26">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J26">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7140745</v>
+      </c>
+      <c r="N26">
+        <v>3.428149</v>
+      </c>
+      <c r="O26">
+        <v>0.04949570453565343</v>
+      </c>
+      <c r="P26">
+        <v>0.03355067444690085</v>
+      </c>
+      <c r="Q26">
+        <v>1.14699009242</v>
+      </c>
+      <c r="R26">
+        <v>4.58796036968</v>
+      </c>
+      <c r="S26">
+        <v>0.009410695846910653</v>
+      </c>
+      <c r="T26">
+        <v>0.004540456214845039</v>
       </c>
     </row>
   </sheetData>
